--- a/resources/experiment 2/metrics/R2/average time/Macroalbuminuria.xlsx
+++ b/resources/experiment 2/metrics/R2/average time/Macroalbuminuria.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8325521762100275</v>
+        <v>0.8325521762100273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8325521762100275</v>
+        <v>0.8325521762100273</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8325521762100275</v>
+        <v>0.8325521762100273</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9546398314642784</v>
+        <v>0.9980834521943128</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9546398314642784</v>
+        <v>0.9980836383266043</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9546398314642784</v>
+        <v>0.9827637090982152</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9987628094694322</v>
+        <v>0.9975185867164996</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9987628094694322</v>
+        <v>0.997455495858747</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9987628094694322</v>
+        <v>0.9638017149380271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8855855244749424</v>
+        <v>0.9989544420029824</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8855855244749424</v>
+        <v>0.9988894348326443</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8855855244749424</v>
+        <v>0.9981113888451142</v>
       </c>
     </row>
   </sheetData>
